--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA828088-EB7D-41B6-8557-3FC3E214062B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,182 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+  <si>
+    <t>🔸 Module: Application URL / Launch</t>
+  </si>
+  <si>
+    <t>Test Scenarios –  (Amazon E-commerce)</t>
+  </si>
+  <si>
+    <t>Scenario ID</t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>TS_URL_01</t>
+  </si>
+  <si>
+    <t>FR-URL-01</t>
+  </si>
+  <si>
+    <t>Verify application launches successfully with valid URL</t>
+  </si>
+  <si>
+    <t>TS_URL_02</t>
+  </si>
+  <si>
+    <t>FR-URL-02</t>
+  </si>
+  <si>
+    <t>Verify application loads over HTTPS</t>
+  </si>
+  <si>
+    <t>TS_URL_03</t>
+  </si>
+  <si>
+    <t>FR-URL-03</t>
+  </si>
+  <si>
+    <t>Verify application behavior for invalid URL</t>
+  </si>
+  <si>
+    <t>TS_URL_04</t>
+  </si>
+  <si>
+    <t>FR-URL-04</t>
+  </si>
+  <si>
+    <t>Verify application loads within acceptable time</t>
+  </si>
+  <si>
+    <t>TS_URL_05</t>
+  </si>
+  <si>
+    <t>FR-URL-05</t>
+  </si>
+  <si>
+    <t>Verify application compatibility with major browsers</t>
+  </si>
+  <si>
+    <t>Module: Login Functionality</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_01</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-01</t>
+  </si>
+  <si>
+    <t>Verify login with valid email and valid password</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_02</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-02</t>
+  </si>
+  <si>
+    <t>Verify login with valid email and invalid password</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_03</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-03</t>
+  </si>
+  <si>
+    <t>Verify login with invalid email and valid password</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_04</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-04</t>
+  </si>
+  <si>
+    <t>Verify login with invalid email and invalid password</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_05</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-05</t>
+  </si>
+  <si>
+    <t>Verify login with empty email and password fields</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_06</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-06</t>
+  </si>
+  <si>
+    <t>Verify error message for incorrect login credentials</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_07</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-07</t>
+  </si>
+  <si>
+    <t>Verify password field is masked</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_08</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-08</t>
+  </si>
+  <si>
+    <t>Verify login button functionality</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_09</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-09</t>
+  </si>
+  <si>
+    <t>Verify “Forgot Password” link functionality</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_10</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-10</t>
+  </si>
+  <si>
+    <t>Verify user is redirected to login page when accessing protected pages</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_11</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-11</t>
+  </si>
+  <si>
+    <t>Verify user can logout successfully</t>
+  </si>
+  <si>
+    <t>TS_LOGIN_12</t>
+  </si>
+  <si>
+    <t>FR-LOGIN-12</t>
+  </si>
+  <si>
+    <t>Verify session timeout after inactivity</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,12 +223,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +600,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBFA7C-7A1B-464B-8A42-43D024439081}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CCDDFF-8ABD-47D3-926A-74F9DA8E1EDB}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467880A5-333A-4BF1-B49E-5D2D287D3C17}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6C190E-121B-4FA4-8111-DE1A0625FE70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="User Registration" sheetId="4" r:id="rId3"/>
-    <sheet name="Product Search &amp; Browse" sheetId="5" r:id="rId4"/>
-    <sheet name="  Product Details Page" sheetId="6" r:id="rId5"/>
+    <sheet name="User Registration" sheetId="4" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="  Product Details Page" sheetId="6" r:id="rId4"/>
+    <sheet name="Product Search &amp; Browse" sheetId="5" r:id="rId5"/>
     <sheet name="Add to Cart" sheetId="7" r:id="rId6"/>
     <sheet name="Checkout &amp; Address Management" sheetId="8" r:id="rId7"/>
     <sheet name="Payment" sheetId="9" r:id="rId8"/>
@@ -48,9 +48,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="210">
   <si>
-    <t>🔸 Module: Application URL / Launch</t>
-  </si>
-  <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Verify application compatibility with major browsers</t>
   </si>
   <si>
-    <t>Module: Login Functionality</t>
-  </si>
-  <si>
     <t>TS_LOGIN_01</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Verify session timeout after inactivity</t>
   </si>
   <si>
-    <t>Module 1: User Registration</t>
-  </si>
-  <si>
     <t>TS_REG_01</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>Verify successful account creation message</t>
   </si>
   <si>
-    <t>Module 2: Product Search &amp; Browse</t>
-  </si>
-  <si>
     <t>TS_SEARCH_01</t>
   </si>
   <si>
@@ -351,9 +339,6 @@
     <t>Verify product listing pagination</t>
   </si>
   <si>
-    <t>Module 3: Product Details Page</t>
-  </si>
-  <si>
     <t>TS_PDP_01</t>
   </si>
   <si>
@@ -453,12 +438,6 @@
     <t>Verify cart persistence after logout/login</t>
   </si>
   <si>
-    <t>Module 4: Add to Cart</t>
-  </si>
-  <si>
-    <t>Module 5: Checkout &amp; Address Management</t>
-  </si>
-  <si>
     <t>TS_CHK_01</t>
   </si>
   <si>
@@ -504,9 +483,6 @@
     <t>Verify selecting existing address</t>
   </si>
   <si>
-    <t>Module 6: Payment</t>
-  </si>
-  <si>
     <t>TS_PAY_01</t>
   </si>
   <si>
@@ -588,9 +564,6 @@
     <t>Verify refund initiation after cancellation</t>
   </si>
   <si>
-    <t>Module 7: Order Confirmation</t>
-  </si>
-  <si>
     <t>TS_ORD_01</t>
   </si>
   <si>
@@ -627,12 +600,6 @@
     <t>Verify order appears in My Orders</t>
   </si>
   <si>
-    <t>Module 8: Order Tracking &amp; Cancellation</t>
-  </si>
-  <si>
-    <t>Module 9: Non-Functional Scenarios</t>
-  </si>
-  <si>
     <t>TS_NFR_01</t>
   </si>
   <si>
@@ -676,6 +643,39 @@
   </si>
   <si>
     <t>Verify usability and error messages</t>
+  </si>
+  <si>
+    <t>Module 1: Application URL / Launch</t>
+  </si>
+  <si>
+    <t>Module  2: User Registration</t>
+  </si>
+  <si>
+    <t>Module 3: Login Functionality</t>
+  </si>
+  <si>
+    <t>Module 4: Product Details Page</t>
+  </si>
+  <si>
+    <t>Module  5: Product Search &amp; Browse</t>
+  </si>
+  <si>
+    <t>Module  6: Add to Cart</t>
+  </si>
+  <si>
+    <t>Module  7: Checkout &amp; Address Management</t>
+  </si>
+  <si>
+    <t>Module 8: Payment</t>
+  </si>
+  <si>
+    <t>Module 9: Order Confirmation</t>
+  </si>
+  <si>
+    <t>Module 10: Order Tracking &amp; Cancellation</t>
+  </si>
+  <si>
+    <t>Module 11: Non-Functional Scenarios</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBFA7C-7A1B-464B-8A42-43D024439081}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1085,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1093,73 +1095,73 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1174,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,62 +1195,62 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1263,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1275,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,73 +1283,73 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1356,11 +1358,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55CBDF-F532-49CB-AB66-77BF979D15C6}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CCDDFF-8ABD-47D3-926A-74F9DA8E1EDB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,269 +1503,150 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55CBDF-F532-49CB-AB66-77BF979D15C6}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1651,130 +1655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C92C36B-F78A-4DA3-B707-2B968304D4D4}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BEF410-A99C-4F83-8530-914822E5D2F6}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,84 +1679,205 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C92C36B-F78A-4DA3-B707-2B968304D4D4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9775B6-2F51-4959-906D-EDEBA6A5A0C8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1894,7 +1902,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,73 +1910,73 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1989,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,73 +2009,73 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BE7E3-C79E-48DB-8D5F-79AD45D7FEDF}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2090,7 +2100,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2098,73 +2108,73 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473D36B-751E-4B9E-AFAD-955A33B20471}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2187,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,62 +2207,62 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6C190E-121B-4FA4-8111-DE1A0625FE70}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57134CED-A06F-4866-9731-3975EA5007C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="219">
   <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
@@ -216,66 +216,24 @@
     <t>TS_REG_01</t>
   </si>
   <si>
-    <t>FR-REG-01</t>
-  </si>
-  <si>
-    <t>Verify user can register with valid details</t>
-  </si>
-  <si>
     <t>TS_REG_02</t>
   </si>
   <si>
-    <t>FR-REG-02</t>
-  </si>
-  <si>
-    <t>Verify registration with already registered email</t>
-  </si>
-  <si>
     <t>TS_REG_03</t>
   </si>
   <si>
-    <t>FR-REG-03</t>
-  </si>
-  <si>
-    <t>Verify mandatory field validation during registration</t>
-  </si>
-  <si>
     <t>TS_REG_04</t>
   </si>
   <si>
-    <t>FR-REG-04</t>
-  </si>
-  <si>
-    <t>Verify password complexity rules</t>
-  </si>
-  <si>
     <t>TS_REG_05</t>
   </si>
   <si>
-    <t>FR-REG-05</t>
-  </si>
-  <si>
-    <t>Verify confirm password mismatch validation</t>
-  </si>
-  <si>
     <t>TS_REG_06</t>
   </si>
   <si>
-    <t>FR-REG-06</t>
-  </si>
-  <si>
-    <t>Verify mobile number validation</t>
-  </si>
-  <si>
     <t>TS_REG_07</t>
   </si>
   <si>
-    <t>FR-REG-07</t>
-  </si>
-  <si>
-    <t>Verify successful account creation message</t>
-  </si>
-  <si>
     <t>TS_SEARCH_01</t>
   </si>
   <si>
@@ -676,16 +634,91 @@
   </si>
   <si>
     <t>Module 11: Non-Functional Scenarios</t>
+  </si>
+  <si>
+    <t>TS_REG_08</t>
+  </si>
+  <si>
+    <t>TS_REG_09</t>
+  </si>
+  <si>
+    <t>TS_REG_10</t>
+  </si>
+  <si>
+    <t>FR_REG_05</t>
+  </si>
+  <si>
+    <t>FR_REG_06</t>
+  </si>
+  <si>
+    <t>FR_REG_07</t>
+  </si>
+  <si>
+    <t>FR_REG_08</t>
+  </si>
+  <si>
+    <t>FR_REG_09</t>
+  </si>
+  <si>
+    <t>FR_REG_10</t>
+  </si>
+  <si>
+    <t>FR_REG_02</t>
+  </si>
+  <si>
+    <t>FR_REG_01</t>
+  </si>
+  <si>
+    <t>Verify user can successfully register using valid email and password.</t>
+  </si>
+  <si>
+    <t>FR_REG_03</t>
+  </si>
+  <si>
+    <t>FR_REG_04</t>
+  </si>
+  <si>
+    <t>Verify system displays validation messages when mandatory registration fields are left blank.</t>
+  </si>
+  <si>
+    <t>Verify system displays appropriate error message for invalid email format during registration.</t>
+  </si>
+  <si>
+    <t>Verify system prevents registration using an already registered email address.</t>
+  </si>
+  <si>
+    <t>Verify system validates phone number format and length during registration.</t>
+  </si>
+  <si>
+    <t>Verify OTP is successfully sent to a valid phone number during registration.</t>
+  </si>
+  <si>
+    <t>Verify system allows user to resend OTP and generates a new OTP.</t>
+  </si>
+  <si>
+    <t>Verify system displays appropriate message when an expired OTP is entered.</t>
+  </si>
+  <si>
+    <t>Verify system displays error message when an invalid OTP is entered.</t>
+  </si>
+  <si>
+    <t>Verify user is able to complete registration by entering a valid OTP.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -729,11 +762,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBFA7C-7A1B-464B-8A42-43D024439081}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1095,7 +1131,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,7 +1231,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,46 +1247,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1319,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,57 +1335,57 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1359,17 +1395,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55CBDF-F532-49CB-AB66-77BF979D15C6}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1418,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,79 +1437,113 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
+        <v>206</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
+        <v>205</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
+        <v>208</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
+        <v>209</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
+        <v>199</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
+        <v>200</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
+        <v>201</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1503,7 +1573,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,7 +1749,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,68 +1765,68 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1859,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,79 +1875,79 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1980,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,57 +1996,57 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2079,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,57 +2095,57 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2178,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,57 +2194,57 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2277,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,46 +2293,46 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57134CED-A06F-4866-9731-3975EA5007C8}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD9F560-BDFB-420E-AEE3-52A1B833425F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
     <sheet name="User Registration" sheetId="4" r:id="rId2"/>
-    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Login&amp;Logout" sheetId="3" r:id="rId3"/>
     <sheet name="  Product Details Page" sheetId="6" r:id="rId4"/>
     <sheet name="Product Search &amp; Browse" sheetId="5" r:id="rId5"/>
     <sheet name="Add to Cart" sheetId="7" r:id="rId6"/>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55CBDF-F532-49CB-AB66-77BF979D15C6}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CCDDFF-8ABD-47D3-926A-74F9DA8E1EDB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939E4DA6-3C48-4BA9-B892-0A5D24AC7FCC}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A98FFDE-6516-4CE7-8CE0-3DB160B351E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
   <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
@@ -477,9 +477,6 @@
     <t>FR-PAY-05</t>
   </si>
   <si>
-    <t>Verify secure payment processing</t>
-  </si>
-  <si>
     <t>TS_TRACK_01</t>
   </si>
   <si>
@@ -730,6 +727,27 @@
   </si>
   <si>
     <t>Verify proceed to payment</t>
+  </si>
+  <si>
+    <t>TS_PAY_06</t>
+  </si>
+  <si>
+    <t>TS_PAY_07</t>
+  </si>
+  <si>
+    <t>FR-PAY-06</t>
+  </si>
+  <si>
+    <t>FR-PAY-07</t>
+  </si>
+  <si>
+    <t>Verify different payment method avialable</t>
+  </si>
+  <si>
+    <t>Verify  payment Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify secure payment </t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1176,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,7 +1276,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,46 +1292,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1364,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,57 +1380,57 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
         <v>168</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>169</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
         <v>174</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
         <v>177</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
         <v>180</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>181</v>
-      </c>
-      <c r="C11" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1463,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,10 +1482,10 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,10 +1493,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,10 +1504,10 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,10 +1515,10 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,10 +1526,10 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,10 +1537,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1530,43 +1548,43 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1618,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,7 +1794,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,7 +1904,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1987,7 +2005,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2025,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2040,7 +2058,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,10 +2096,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
         <v>217</v>
-      </c>
-      <c r="B11" t="s">
-        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -2097,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338B023B-EC1B-4CB7-BD70-1AFF2EFC0F7B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2136,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,7 +2169,7 @@
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,29 +2202,29 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BE7E3-C79E-48DB-8D5F-79AD45D7FEDF}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2258,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,7 +2280,7 @@
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2273,7 +2291,7 @@
         <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,7 +2302,7 @@
         <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2295,7 +2313,7 @@
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,10 +2324,33 @@
         <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2339,7 +2380,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,46 +2396,46 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
         <v>156</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>160</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
         <v>162</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
         <v>165</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>166</v>
-      </c>
-      <c r="C10" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB6E8296-A276-443F-A854-C23540F2CFD4}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D70453F-665C-4624-AA75-9019CB8DB224}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="8" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="249">
   <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
@@ -775,6 +775,24 @@
   </si>
   <si>
     <t>Verfiy Email/Phone order confrimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify order tracking </t>
+  </si>
+  <si>
+    <t>Verify  to Prevent cancellation after shipment</t>
+  </si>
+  <si>
+    <t>FR-TRACK-05</t>
+  </si>
+  <si>
+    <t>FR-TRACK-06</t>
+  </si>
+  <si>
+    <t>TS_TRACK_05</t>
+  </si>
+  <si>
+    <t>TS_TRACK_06</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0290F6-856A-404F-B56C-70A88603A650}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1343,7 @@
         <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,7 +1354,7 @@
         <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,7 +1365,7 @@
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,10 +1376,33 @@
         <v>153</v>
       </c>
       <c r="C11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2386,7 +2427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473D36B-751E-4B9E-AFAD-955A33B20471}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="439" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC0DC26-D599-4719-9F49-C1CC91940611}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -1874,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BEF410-A99C-4F83-8530-914822E5D2F6}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C92C36B-F78A-4DA3-B707-2B968304D4D4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="439" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC0DC26-D599-4719-9F49-C1CC91940611}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0290F6-856A-404F-B56C-70A88603A650}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C92C36B-F78A-4DA3-B707-2B968304D4D4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
